--- a/medicine/Pharmacie/Consommation_de_médicaments/Consommation_de_médicaments.xlsx
+++ b/medicine/Pharmacie/Consommation_de_médicaments/Consommation_de_médicaments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Consommation_de_m%C3%A9dicaments</t>
+          <t>Consommation_de_médicaments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La consommation de médicaments, prise de médicaments ou administration de médicaments correspond à l'acte de s'administrer une substance médicamenteuse, le plus souvent dans le cadre d'un traitement ordonné par un médecin (médication), mais aussi dans une démarche thérapeutique autonome (automédication), ou, parfois, dans un but suicidaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Consommation_de_m%C3%A9dicaments</t>
+          <t>Consommation_de_médicaments</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste
-Canada
-[2],[3],[4],[5],[6],[7],[8],[9],[10],[11],[12]
-Algérie
-[13]
-France
-[14],[15]
-Cameroun
-[16]
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Consommation_de_m%C3%A9dicaments</t>
+          <t>Consommation_de_médicaments</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,16 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Par âge de la vie</t>
+          <t>Par pays</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chez les personnes âgées
-[17],[18],[3],[19],[14],[20],[21],[22],[23],[24],[25],[26],[27]
-En milieu de travail
-Pendant la grossesse
-[28],[29],[30]
+          <t>Algérie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -567,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Consommation_de_m%C3%A9dicaments</t>
+          <t>Consommation_de_médicaments</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,17 +594,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Par type de médicament</t>
+          <t>Par pays</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Psychotropes
-Antiallergiques
-Antidépresseurs
-La source des données ci-dessous est le rapport statistique de l'OCDE 2018, publié par l'OCDE en juin 2018 et mis à jour le 8 novembre 2018[31]
-L'unité de mesure de l'OCDE est la « dose quotidienne définie » (DQD), définie comme « dose d'entretien moyenne supposée par jour pour un médicament utilisé dans ses principales indications chez l'adulte »[32]. Les sources utilisées par l'OCDE sont le plus souvent les ministères de la santé dans chaque pays[32]. De plus amples détails sur les définitions, les sources et la méthodologie par pays sont indiqués sur le site de l'OCDE[32].
-Antibiotiques</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">,
+</t>
         </is>
       </c>
     </row>
@@ -602,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Consommation_de_m%C3%A9dicaments</t>
+          <t>Consommation_de_médicaments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,18 +631,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Risques</t>
+          <t>Par pays</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pour la santé mentale
-Pour la conduite automobile
-Surconsommation
-Dépendance
-Intoxication
-Erreur
-Stratégies de remédiation</t>
+          <t>Cameroun</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -638,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Consommation_de_m%C3%A9dicaments</t>
+          <t>Consommation_de_médicaments</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,10 +668,124 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Par âge de la vie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chez les personnes âgées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Consommation_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consommation_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Par âge de la vie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pendant la grossesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Consommation_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consommation_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Par type de médicament</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Antidépresseurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La source des données ci-dessous est le rapport statistique de l'OCDE 2018, publié par l'OCDE en juin 2018 et mis à jour le 8 novembre 2018
+L'unité de mesure de l'OCDE est la « dose quotidienne définie » (DQD), définie comme « dose d'entretien moyenne supposée par jour pour un médicament utilisé dans ses principales indications chez l'adulte ». Les sources utilisées par l'OCDE sont le plus souvent les ministères de la santé dans chaque pays. De plus amples détails sur les définitions, les sources et la méthodologie par pays sont indiqués sur le site de l'OCDE.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Consommation_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consommation_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Suicide</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
